--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,82 +55,82 @@
     <t>panic</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>nice</t>
   </si>
   <si>
     <t>healthy</t>
@@ -700,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9354838709677419</v>
@@ -832,7 +832,7 @@
         <v>140</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9333333333333333</v>
@@ -882,7 +882,7 @@
         <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -932,7 +932,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.8461538461538461</v>
@@ -982,7 +982,7 @@
         <v>444</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>0.8461538461538461</v>
@@ -1011,28 +1011,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.07784431137724551</v>
+        <v>0.007458710708577517</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>186</v>
+        <v>280</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>154</v>
+        <v>1863</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.8440366972477065</v>
@@ -1061,28 +1061,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007458710708577517</v>
+        <v>0.00619533527696793</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="E9">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F9">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1863</v>
+        <v>2727</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.8267716535433071</v>
@@ -1107,32 +1107,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.00619533527696793</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>380</v>
-      </c>
-      <c r="E10">
-        <v>0.96</v>
-      </c>
-      <c r="F10">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2727</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.7936507936507936</v>
@@ -1158,7 +1134,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.7875</v>
@@ -1184,7 +1160,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -1210,7 +1186,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.7564102564102564</v>
@@ -1236,7 +1212,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.693069306930693</v>
@@ -1262,7 +1238,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.6666666666666666</v>
@@ -1288,68 +1264,68 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.658008658008658</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L16">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>17</v>
-      </c>
-      <c r="M17">
-        <v>19</v>
-      </c>
-      <c r="N17">
-        <v>0.89</v>
-      </c>
-      <c r="O17">
-        <v>0.11</v>
-      </c>
-      <c r="P17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6382978723404256</v>
+        <v>0.6359832635983264</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1361,12 +1337,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.6153846153846154</v>
@@ -1392,7 +1368,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.5815602836879432</v>
@@ -1418,7 +1394,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.5652173913043478</v>
@@ -1444,7 +1420,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.5348837209302325</v>
@@ -1470,7 +1446,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>0.5294117647058824</v>
@@ -1496,28 +1472,28 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24">
+        <v>0.52</v>
+      </c>
+      <c r="L24">
         <v>13</v>
       </c>
-      <c r="K24">
-        <v>0.5290519877675841</v>
-      </c>
-      <c r="L24">
-        <v>173</v>
-      </c>
       <c r="M24">
-        <v>186</v>
+        <v>15</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1525,25 +1501,25 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.52</v>
+        <v>0.5088235294117647</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="N25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -2640,7 +2616,7 @@
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K68">
         <v>0.1249412869891968</v>
@@ -2718,7 +2694,7 @@
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K71">
         <v>0.1174757281553398</v>
